--- a/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
+++ b/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008856</t>
+          <t>213008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+          <t>宝盈资源优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.64</t>
+          <t>21.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5080</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005810</t>
+          <t>009223</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+          <t>宝盈现代服务业混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>19.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005811</t>
+          <t>001543</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+          <t>宝盈新锐灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4675</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>213008</t>
+          <t>004357</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈资源优选混合</t>
+          <t>南方智慧精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.57</t>
+          <t>7.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4130</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>005810</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001543</t>
+          <t>002463</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合A</t>
+          <t>创金合信价值红利灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006349</t>
+          <t>008303</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中金MSCI中国A股国际价值指数A</t>
+          <t>宝盈龙头优选股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006350</t>
+          <t>008856</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中金MSCI中国A股国际价值指数C</t>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -726,15 +816,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>24.84</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.04</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009006</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信鑫祺混合C</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>24.84</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008303</t>
+          <t>009224</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>宝盈龙头优选股票A</t>
+          <t>宝盈现代服务业混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008304</t>
+          <t>005811</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>宝盈龙头优选股票C</t>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002463</t>
+          <t>007578</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>创金合信价值红利灵活配置混合A</t>
+          <t>宝盈新锐灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>36.04</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004357</t>
+          <t>008304</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方智慧精选灵活配置混合</t>
+          <t>宝盈龙头优选股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005404</t>
+          <t>009006</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>创金合信价值红利灵活配置混合C</t>
+          <t>创金合信鑫祺混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>36.04</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007578</t>
+          <t>006349</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合C</t>
+          <t>中金MSCI中国A股国际价值指数A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009223</t>
+          <t>006350</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>宝盈现代服务业混合A</t>
+          <t>中金MSCI中国A股国际价值指数C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009224</t>
+          <t>005404</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>宝盈现代服务业混合C</t>
+          <t>创金合信价值红利灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>159825</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>富国中证农业主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4985</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164510</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富兰克林国海恒利债券（LOF）C</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.79</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.50</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010769</t>
+          <t>001579</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘中证农业主题指数A</t>
+          <t>国泰大农业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010770</t>
+          <t>010769</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证农业主题指数C</t>
+          <t>天弘中证农业主题指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.95</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.60</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001579</t>
+          <t>159827</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰大农业股票</t>
+          <t>银华中证农业主题ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159825</t>
+          <t>010770</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国中证农业主题ETF</t>
+          <t>天弘中证农业主题指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>98.80</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159827</t>
+          <t>673030</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>银华中证农业主题ETF</t>
+          <t>西部利得多策略优选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>97.76</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>52.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>673030</t>
+          <t>009005</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>西部利得多策略优选灵活配置混合</t>
+          <t>创金合信鑫祺混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>52.25</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009005</t>
+          <t>009006</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信鑫祺混合A</t>
+          <t>创金合信鑫祺混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>29.96</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.43</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009006</t>
+          <t>164510</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信鑫祺混合C</t>
+          <t>富兰克林国海恒利债券（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>29.96</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
+++ b/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7171</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3813</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
+++ b/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2132,4 +2133,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8197</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5791</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3434</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
+++ b/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2607,4 +2608,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
+++ b/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2616,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2627,17 +2628,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2647,14 +2668,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.8</v>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1527</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2663,14 +2706,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.72</v>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0336</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2679,14 +2744,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.62</v>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2695,13 +2782,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3998</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3087</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.99</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
+++ b/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3509,7 +3510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3520,17 +3521,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3540,14 +3561,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.05</v>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6533</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3556,14 +3599,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.8</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3572,14 +3637,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.72</v>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7075</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3588,14 +3675,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5990</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.62</v>
       </c>
     </row>
     <row r="6">
@@ -3604,13 +3713,4761 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3987</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3462</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1880</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1197</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9959</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7625</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6942</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6327</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5986</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5596</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5387</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4241</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>61.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2967</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2908</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>61.03</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>64.68</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008058</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>61.24</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>970046</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>54.62</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>970047</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008059</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>61.03</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>54.62</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>126</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.99</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
+++ b/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8350,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8361,17 +8362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8381,14 +8402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>126</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.92</v>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -8397,14 +8440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.05</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7442</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -8413,14 +8478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.8</v>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -8429,14 +8516,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.72</v>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -8445,14 +8554,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.62</v>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -8461,13 +8592,2615 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9097</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7892</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6353</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6328</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5709</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>53.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3841</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3518</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2972</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>67.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008058</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000273</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华润元大安鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007632</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华润元大安鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008059</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>126</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.99</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
+++ b/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>18.55</v>
+        <v>14.27</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>28.92</v>
+        <v>18.55</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="D4" t="n">
-        <v>5.05</v>
+        <v>28.92</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>3.8</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>2.72</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.62</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.99</v>
       </c>
     </row>
@@ -600,6 +617,1922 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3611</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2927</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7403</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5321</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5190</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4232</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3570</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>53.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3495</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3486</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3050</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天治核心成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516810</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159616</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信中证农牧主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>562900</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证现代农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>016234</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>财通景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3315,7 +5248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8155,7 +10088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9047,7 +10980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9521,7 +11454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10033,7 +11966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10469,7 +12402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
+++ b/数据整理/stocks/A股/深证主板/000876-新希望.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>14.27</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>18.55</v>
+        <v>14.27</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>28.92</v>
+        <v>18.55</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="D5" t="n">
-        <v>5.05</v>
+        <v>28.92</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>3.8</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>2.72</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>1.62</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.99</v>
       </c>
     </row>
@@ -616,7 +633,1563 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5080</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4675</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4130</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002463</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006349</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006350</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005404</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7962</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6942</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4860</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4155</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159616</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信中证农牧主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>562900</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达中证现代农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银新得利混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2532,7 +4105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5248,7 +6821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10088,7 +11661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10980,7 +12553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11454,7 +13027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11966,7 +13539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12400,744 +13973,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>213008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈资源优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5080</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009223</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈现代服务业混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5008</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001543</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈新锐灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4675</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004357</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方智慧精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4130</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005810</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方瑞祥一年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4120</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002463</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1669</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008303</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1314</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008856</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.64</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1097</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009005</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信鑫祺混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0768</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001487</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0651</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009224</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>宝盈现代服务业混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0534</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005811</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方瑞祥一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0367</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007578</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>宝盈新锐灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008304</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009006</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>创金合信鑫祺混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006349</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中金MSCI中国A股国际价值指数A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006350</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中金MSCI中国A股国际价值指数C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005404</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>